--- a/biology/Botanique/Festuca_rubra/Festuca_rubra.xlsx
+++ b/biology/Botanique/Festuca_rubra/Festuca_rubra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fétuque rouge
-Festuca rubra, la fétuque rouge[1] ou fétuque traçante, est une espèce de la famille des Poaceae et du genre Festuca.
+Festuca rubra, la fétuque rouge ou fétuque traçante, est une espèce de la famille des Poaceae et du genre Festuca.
 Cette espèce vit à l'état naturel en Europe, en Asie tempérée et en Amérique du Nord.
 Elle occupe une grande variété de milieux, depuis les bords de mer (dunes, prés salés, falaises) jusqu'aux pelouses montagnardes.
 </t>
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Festuca duriuscula L.
 Festuca repens Knapp</t>
@@ -545,9 +559,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Près de 190 variétés sont inscrites au catalogue français principalement pour leur usage en gazon et plus de 340 au catalogue européen[2]. Elles sont classées selon trois types : traçante, 1/2 traçante et gazonnante.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Près de 190 variétés sont inscrites au catalogue français principalement pour leur usage en gazon et plus de 340 au catalogue européen. Elles sont classées selon trois types : traçante, 1/2 traçante et gazonnante.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes à gazon très utilisée en mélanges. De nombreuses variétés ont été créées pour cet usage. Les types demi-traçante et gazonnante étant particulièrement adaptés à cet usage[3], Il est possible de ne pas la faucher mais seulement de l'écimer ou de la peigner pour les gazons auxquels on veut donner un aspect prairie luxuriante.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plantes à gazon très utilisée en mélanges. De nombreuses variétés ont été créées pour cet usage. Les types demi-traçante et gazonnante étant particulièrement adaptés à cet usage, Il est possible de ne pas la faucher mais seulement de l'écimer ou de la peigner pour les gazons auxquels on veut donner un aspect prairie luxuriante.
 Plante fourragère faiblement productive, mais adaptée à des conditions variées.</t>
         </is>
       </c>
